--- a/media/pre_process.GetImage.xlsx
+++ b/media/pre_process.GetImage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FCCB2A-7F9F-4C76-9095-F2027520B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF91BC-010A-43B9-8E3D-422FFC775FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="33960" yWindow="1620" windowWidth="17610" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If true, set dtype as float32.
+    <t>If True, set dtype as float32.
 Defaults to False.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,7 +130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
